--- a/TEMOA_Europe_Results/_7_Biorefineries.xlsx
+++ b/TEMOA_Europe_Results/_7_Biorefineries.xlsx
@@ -564,7 +564,7 @@
         <v>503766.9147166676</v>
       </c>
       <c r="I3">
-        <v>516077.2079770708</v>
+        <v>516077.2079770709</v>
       </c>
       <c r="J3">
         <v>528904.7703644369</v>
@@ -599,16 +599,16 @@
         <v>1419.110065842845</v>
       </c>
       <c r="H4">
-        <v>1663.542531807873</v>
+        <v>1663.542531807874</v>
       </c>
       <c r="I4">
         <v>1704.193665932524</v>
       </c>
       <c r="J4">
-        <v>1746.552929686088</v>
+        <v>1746.552929686087</v>
       </c>
       <c r="K4">
-        <v>330.515529939991</v>
+        <v>330.5155299399909</v>
       </c>
       <c r="L4">
         <v>1365.323436841054</v>
@@ -780,7 +780,7 @@
         <v>145761.3429658156</v>
       </c>
       <c r="E9">
-        <v>123957.1888918328</v>
+        <v>123957.1888918327</v>
       </c>
       <c r="F9">
         <v>177640.9069779654</v>
@@ -792,10 +792,10 @@
         <v>115785.9468868027</v>
       </c>
       <c r="I9">
-        <v>93558.61529725618</v>
+        <v>93558.61529725615</v>
       </c>
       <c r="J9">
-        <v>13704.553123802</v>
+        <v>13704.55312380201</v>
       </c>
       <c r="K9">
         <v>1000.95459105053</v>
@@ -833,13 +833,13 @@
         <v>2460.511423481422</v>
       </c>
       <c r="J10">
-        <v>360.4180054149622</v>
+        <v>360.4180054149621</v>
       </c>
       <c r="K10">
         <v>26.34091029080341</v>
       </c>
       <c r="L10">
-        <v>6.566237669441301</v>
+        <v>6.566237669441302</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -853,7 +853,7 @@
         <v>22</v>
       </c>
       <c r="D11">
-        <v>686.9449995675407</v>
+        <v>686.9449995675409</v>
       </c>
       <c r="E11">
         <v>584.2137663080501</v>
@@ -874,7 +874,7 @@
         <v>64.58690657036122</v>
       </c>
       <c r="K11">
-        <v>4.720291124111971</v>
+        <v>4.720291124111972</v>
       </c>
       <c r="L11">
         <v>1.176669790363881</v>
@@ -1036,7 +1036,7 @@
         <v>14681.96056517367</v>
       </c>
       <c r="K2">
-        <v>2778.396173558048</v>
+        <v>2778.396173558049</v>
       </c>
       <c r="L2">
         <v>11477.25014094511</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>780.3404325182908</v>
+        <v>780.3404325182909</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>5803.235916279068</v>
+        <v>5803.235916279066</v>
       </c>
       <c r="L3">
         <v>2081.634768771408</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>509.6554055668836</v>
+        <v>509.6554055668835</v>
       </c>
       <c r="K4">
         <v>1446.355738990849</v>
       </c>
       <c r="L4">
-        <v>26717.34906463851</v>
+        <v>26717.34906463852</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1129,28 +1129,28 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>6869.449995675411</v>
+        <v>6869.449995675406</v>
       </c>
       <c r="E5">
-        <v>5842.137663080504</v>
+        <v>5842.137663080503</v>
       </c>
       <c r="F5">
         <v>8373.641406258559</v>
       </c>
       <c r="G5">
-        <v>4243.83226128353</v>
+        <v>4243.832261283525</v>
       </c>
       <c r="H5">
-        <v>5456.767591166863</v>
+        <v>5456.767591166861</v>
       </c>
       <c r="I5">
-        <v>4409.236470878708</v>
+        <v>4409.236470878706</v>
       </c>
       <c r="J5">
         <v>645.8690657036124</v>
       </c>
       <c r="K5">
-        <v>47.20291124111971</v>
+        <v>47.20291124111972</v>
       </c>
       <c r="L5">
         <v>11.76669790363881</v>
@@ -1191,7 +1191,7 @@
         <v>11271.28705331147</v>
       </c>
       <c r="L6">
-        <v>41417.47173132403</v>
+        <v>41417.47173132402</v>
       </c>
     </row>
   </sheetData>
